--- a/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>MSRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,19 +761,22 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,8 +789,8 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -791,11 +798,11 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -803,14 +810,17 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +833,8 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -832,11 +842,11 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -844,14 +854,17 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,35 +966,38 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1014,11 +1037,11 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,40 +1187,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,122 +1231,131 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1400</v>
+        <v>-23600</v>
       </c>
       <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1400</v>
+        <v>-23600</v>
       </c>
       <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5700</v>
+        <v>-87400</v>
       </c>
       <c r="E27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,81 +1715,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5700</v>
+        <v>-87400</v>
       </c>
       <c r="E33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5700</v>
+        <v>-87400</v>
       </c>
       <c r="E35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1901,28 +1988,31 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1973,8 +2066,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1985,8 +2078,8 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2001,10 +2094,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2062,31 +2161,34 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2094,45 +2196,48 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1200</v>
       </c>
       <c r="J46" s="3">
         <v>1200</v>
       </c>
       <c r="K46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -2141,7 +2246,7 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
@@ -2156,19 +2261,22 @@
         <v>400</v>
       </c>
       <c r="L47" s="3">
+        <v>400</v>
+      </c>
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>200</v>
       </c>
       <c r="O47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2191,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2208,13 +2316,16 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -2223,34 +2334,37 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>3000</v>
       </c>
       <c r="M49" s="3">
         <v>3000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>3000</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>600</v>
       </c>
       <c r="F54" s="3">
         <v>600</v>
       </c>
       <c r="G54" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="H54" s="3">
         <v>1300</v>
       </c>
       <c r="I54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,172 +2618,185 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E58" s="3">
         <v>2400</v>
       </c>
       <c r="F58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4000</v>
       </c>
       <c r="G59" s="3">
         <v>4000</v>
       </c>
       <c r="H59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1300</v>
       </c>
       <c r="O59" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2688,13 +2831,16 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-87900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-82300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-80800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-73200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-70200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-37300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5700</v>
+        <v>-87400</v>
       </c>
       <c r="E81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3441,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3453,11 +3652,11 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3744,20 +3965,20 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,13 +4083,16 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3871,34 +4101,37 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4087,40 +4333,43 @@
         <v>500</v>
       </c>
       <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4178,27 +4430,30 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>MSRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,27 +767,30 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -792,8 +798,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -801,11 +807,11 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -813,22 +819,25 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -836,8 +845,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -845,11 +854,11 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -857,14 +866,17 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,38 +985,41 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>300</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1040,11 +1062,11 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1097,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1154,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1600</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1220,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>600</v>
+      </c>
+      <c r="N20" s="3">
+        <v>400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,131 +1267,140 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-87400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1784,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
-        <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>600</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-87400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-87400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1991,28 +2077,31 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2144,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2069,8 +2161,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2081,8 +2173,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2097,10 +2189,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2164,31 +2262,34 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,40 +2300,43 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1200</v>
       </c>
       <c r="K46" s="3">
         <v>1200</v>
       </c>
       <c r="L46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>2200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -2249,7 +2353,7 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I47" s="3">
         <v>400</v>
@@ -2264,19 +2368,22 @@
         <v>400</v>
       </c>
       <c r="M47" s="3">
+        <v>400</v>
+      </c>
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
-      </c>
-      <c r="O47" s="3">
-        <v>200</v>
       </c>
       <c r="P47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2302,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2337,34 +2447,37 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3000</v>
       </c>
       <c r="N49" s="3">
         <v>3000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>3000</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,43 +2673,46 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>600</v>
       </c>
       <c r="G54" s="3">
         <v>600</v>
       </c>
       <c r="H54" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>1300</v>
       </c>
       <c r="J54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,184 +2748,197 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2400</v>
       </c>
       <c r="F58" s="3">
         <v>2400</v>
       </c>
       <c r="G58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E59" s="3">
         <v>19500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4000</v>
       </c>
       <c r="H59" s="3">
         <v>4000</v>
       </c>
       <c r="I59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1300</v>
       </c>
       <c r="P59" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E60" s="3">
         <v>24900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2834,13 +2976,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E66" s="3">
         <v>24900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-189600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-175200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-87900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-82300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-73200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-56000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-48900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-37300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-24900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-87400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3655,11 +3853,11 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,20 +4188,20 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,17 +4312,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4104,34 +4333,37 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4433,27 +4684,30 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>MSRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,19 +778,25 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,44 +806,50 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,44 +859,50 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,44 +1022,50 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1065,14 +1111,14 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>14300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-12000</v>
       </c>
       <c r="O18" s="3">
         <v>-7500</v>
       </c>
       <c r="P18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="R18" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,46 +1288,52 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-20900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,140 +1341,158 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-22000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-17400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-7400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-23600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-18200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-23600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-87400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-18200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1924,105 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>30800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G32" s="3">
         <v>20900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-87400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-18200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-87400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-18200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2080,28 +2254,34 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,28 +2327,34 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2176,11 +2362,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2192,10 +2378,16 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2265,31 +2463,37 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2303,63 +2507,69 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
@@ -2371,19 +2581,25 @@
         <v>400</v>
       </c>
       <c r="N47" s="3">
+        <v>400</v>
+      </c>
+      <c r="O47" s="3">
+        <v>400</v>
+      </c>
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2412,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2429,55 +2645,67 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
       </c>
       <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
+        <v>800</v>
+      </c>
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,16 +2804,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2676,43 +2928,49 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,201 +3009,227 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F58" s="3">
         <v>7100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F59" s="3">
         <v>24300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>19500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>68500</v>
+      </c>
+      <c r="F60" s="3">
         <v>36900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>13900</v>
       </c>
       <c r="M60" s="3">
         <v>2700</v>
       </c>
       <c r="N60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2979,13 +3265,19 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>68500</v>
+      </c>
+      <c r="F66" s="3">
         <v>36900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>24900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>13900</v>
       </c>
       <c r="M66" s="3">
         <v>2700</v>
       </c>
       <c r="N66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-396600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-316500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-189600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-175200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-87900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-82300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-80800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-77700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-73200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-70200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-74300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-56000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-48900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-37300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-29900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-36900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-24900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-8000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-7400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-6800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-11400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-87400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-18200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3844,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3856,14 +4254,14 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4551,52 @@
         <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4191,23 +4633,23 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4324,46 +4784,52 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,46 +5070,52 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>800</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>800</v>
+      </c>
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>6300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4687,27 +5191,33 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>MSRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,24 +788,27 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -812,8 +819,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -821,8 +828,8 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -830,11 +837,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -842,14 +849,17 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,8 +875,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -874,8 +884,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -883,11 +893,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -895,14 +905,17 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,47 +1045,50 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1117,11 +1140,11 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,52 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-30800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,158 +1378,167 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-31000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-22000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-14200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-80100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-80100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-32000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-80100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-127000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-87400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>78800</v>
+      </c>
+      <c r="F32" s="3">
         <v>30800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-80100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-127000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-87400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-80100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-127000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-87400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2260,28 +2347,31 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2347,8 +2440,8 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2356,8 +2449,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2368,8 +2461,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2384,10 +2477,13 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2469,31 +2568,34 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2513,40 +2615,43 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1200</v>
       </c>
       <c r="N46" s="3">
         <v>1200</v>
       </c>
       <c r="O46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2556,14 +2661,14 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -2572,7 +2677,7 @@
         <v>200</v>
       </c>
       <c r="K47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L47" s="3">
         <v>400</v>
@@ -2587,19 +2692,22 @@
         <v>400</v>
       </c>
       <c r="P47" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>300</v>
-      </c>
-      <c r="R47" s="3">
-        <v>200</v>
       </c>
       <c r="S47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2634,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2662,14 +2773,14 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2678,34 +2789,37 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
+        <v>200</v>
+      </c>
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>3000</v>
       </c>
       <c r="Q49" s="3">
         <v>3000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>3000</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2821,8 +2941,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2934,43 +3060,46 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>600</v>
       </c>
       <c r="J54" s="3">
         <v>600</v>
       </c>
       <c r="K54" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>1300</v>
       </c>
       <c r="M54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,220 +3141,233 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E58" s="3">
         <v>7600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2400</v>
       </c>
       <c r="I58" s="3">
         <v>2400</v>
       </c>
       <c r="J58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E59" s="3">
         <v>134000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4000</v>
       </c>
       <c r="K59" s="3">
         <v>4000</v>
       </c>
       <c r="L59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1300</v>
       </c>
       <c r="S59" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E60" s="3">
         <v>148500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>68500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3271,13 +3414,16 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E66" s="3">
         <v>148600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-396600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-316500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-189600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-175200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-87900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-82300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-80800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-73200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-70200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-74300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-37300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-148600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-68500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-36900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-24900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-80100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-127000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-87400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4248,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4260,11 +4459,11 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4639,20 +4860,20 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4790,11 +5020,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4802,34 +5032,37 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>200</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5197,27 +5449,30 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -791,27 +794,30 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -822,8 +828,8 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -831,8 +837,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -840,11 +846,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -852,22 +858,25 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -878,8 +887,8 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -887,8 +896,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -896,11 +905,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -908,14 +917,17 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,50 +1064,53 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1143,11 +1165,11 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,55 +1214,58 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,55 +1355,58 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>66500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-78800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-30800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,167 +1414,176 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>66300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-79100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-22000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-14200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E23" s="3">
         <v>64700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-80100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E26" s="3">
         <v>64700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-80100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E27" s="3">
         <v>64700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-80100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-127000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-87400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2063,117 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="F32" s="3">
         <v>78800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>30800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E33" s="3">
         <v>64700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-80100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-127000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-87400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E35" s="3">
         <v>64700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-80100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-127000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-87400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2350,28 +2436,31 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2443,8 +2535,8 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2452,8 +2544,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2464,8 +2556,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2480,10 +2572,13 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,13 +2633,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2571,36 +2669,39 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2618,40 +2719,43 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1200</v>
       </c>
       <c r="O46" s="3">
         <v>1200</v>
       </c>
       <c r="P46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>2200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2664,14 +2768,14 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -2680,7 +2784,7 @@
         <v>200</v>
       </c>
       <c r="L47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M47" s="3">
         <v>400</v>
@@ -2695,19 +2799,22 @@
         <v>400</v>
       </c>
       <c r="Q47" s="3">
+        <v>400</v>
+      </c>
+      <c r="R47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>300</v>
-      </c>
-      <c r="S47" s="3">
-        <v>200</v>
       </c>
       <c r="T47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2745,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2776,14 +2886,14 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -2792,34 +2902,37 @@
         <v>200</v>
       </c>
       <c r="L49" s="3">
+        <v>200</v>
+      </c>
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>3000</v>
       </c>
       <c r="R49" s="3">
         <v>3000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>3000</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2944,8 +3063,8 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3164,16 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3063,43 +3188,46 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
       </c>
       <c r="L54" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="M54" s="3">
         <v>1300</v>
       </c>
       <c r="N54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O54" s="3">
         <v>2400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,232 +3271,245 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>7900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2400</v>
       </c>
       <c r="J58" s="3">
         <v>2400</v>
       </c>
       <c r="K58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E59" s="3">
         <v>67700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>134000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>4000</v>
       </c>
       <c r="L59" s="3">
         <v>4000</v>
       </c>
       <c r="M59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1300</v>
       </c>
       <c r="T59" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E60" s="3">
         <v>83800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>148500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>68500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,7 +3520,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3417,13 +3559,16 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E66" s="3">
         <v>83900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>148600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,13 +4000,16 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>-21000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-301200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-332000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-396600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-316500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-189600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-175200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-87900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-82300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-80800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-77700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-73200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-70200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-74300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-48900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-37300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-83900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-148600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-68500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-36900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-24900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-11400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E81" s="3">
         <v>64700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-80100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-127000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-87400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4450,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4462,11 +4660,11 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,46 +5056,47 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,16 +5231,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5023,11 +5252,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5035,34 +5264,37 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5452,27 +5703,30 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1900</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>MSRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,19 +801,22 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -831,8 +838,8 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -840,8 +847,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -849,11 +856,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -861,14 +868,17 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +888,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -890,8 +900,8 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -899,8 +909,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -908,11 +918,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -920,14 +930,17 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,53 +1084,56 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1126,13 +1146,16 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1156,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1168,11 +1191,11 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,55 +1306,58 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,58 +1389,61 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F20" s="3">
         <v>66500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-78800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-30800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,176 +1451,185 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F21" s="3">
         <v>66300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-79100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-31000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-14200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>3800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E23" s="3">
         <v>32700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>64700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-80100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E26" s="3">
         <v>32700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>64700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-80100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="E27" s="3">
         <v>30800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>64700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-80100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-127000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-87400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,117 +2133,123 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-66500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>78800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="E33" s="3">
         <v>30800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>64700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-80100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-127000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-87400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-18000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="E35" s="3">
         <v>30800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>64700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-80100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-127000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-87400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-18000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2439,28 +2526,31 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2538,8 +2631,8 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2547,8 +2640,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2559,8 +2652,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2575,10 +2668,13 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,17 +2732,20 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2672,40 +2771,43 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2722,40 +2824,43 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1200</v>
       </c>
       <c r="P46" s="3">
         <v>1200</v>
       </c>
       <c r="Q46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>2200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2771,14 +2876,14 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -2787,7 +2892,7 @@
         <v>200</v>
       </c>
       <c r="M47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N47" s="3">
         <v>400</v>
@@ -2802,19 +2907,22 @@
         <v>400</v>
       </c>
       <c r="R47" s="3">
+        <v>400</v>
+      </c>
+      <c r="S47" s="3">
         <v>100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>300</v>
-      </c>
-      <c r="T47" s="3">
-        <v>200</v>
       </c>
       <c r="U47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2855,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2889,14 +3000,14 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2905,34 +3016,37 @@
         <v>200</v>
       </c>
       <c r="M49" s="3">
+        <v>200</v>
+      </c>
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>3000</v>
       </c>
       <c r="S49" s="3">
         <v>3000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>3000</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3066,8 +3186,8 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,17 +3290,20 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -3191,43 +3317,46 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>600</v>
       </c>
       <c r="M54" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="N54" s="3">
         <v>1300</v>
       </c>
       <c r="O54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P54" s="3">
         <v>2400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,176 +3474,185 @@
         <v>3300</v>
       </c>
       <c r="E58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F58" s="3">
         <v>7900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2400</v>
       </c>
       <c r="K58" s="3">
         <v>2400</v>
       </c>
       <c r="L58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E59" s="3">
         <v>29400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>134000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>55000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>4000</v>
       </c>
       <c r="M59" s="3">
         <v>4000</v>
       </c>
       <c r="N59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1300</v>
       </c>
       <c r="U59" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E60" s="3">
         <v>37700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>83800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>148500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>68500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3523,7 +3666,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3562,13 +3705,16 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E66" s="3">
         <v>37800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,17 +4168,20 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E70" s="3">
         <v>-21000</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-348400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-301200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-332000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-396600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-316500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-189600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-175200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-87900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-82300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-80800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-77700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-73200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-70200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-56000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-48900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-37300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-16800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-83900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-148600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-68500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-36900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-24900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="E81" s="3">
         <v>30800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>64700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-80100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-127000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-87400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-18000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,13 +4819,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4651,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4663,11 +4862,11 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5083,23 +5304,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5245,8 +5475,8 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5255,11 +5485,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5267,34 +5497,37 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>200</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5706,27 +5958,30 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>MSRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -804,36 +812,42 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -841,61 +855,67 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -903,44 +923,50 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,59 +1121,65 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-4300</v>
       </c>
       <c r="E14" s="3">
-        <v>-300</v>
+        <v>-171200</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-162400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1149,19 +1189,25 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1182,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1194,14 +1240,14 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1284,78 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>-3900</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>-170700</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>-3600</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>-161900</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>9800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>12100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>14300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>170700</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>3600</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>161900</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-9800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-12000</v>
       </c>
       <c r="T18" s="3">
         <v>-7500</v>
       </c>
       <c r="U18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="W18" s="3">
         <v>-13600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1457,67 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>34400</v>
+        <v>-132900</v>
       </c>
       <c r="F20" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="H20" s="3">
         <v>66500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-78800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-30800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-20900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,185 +1525,203 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="G21" s="3">
         <v>34200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>66300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-79100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-31000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-22000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-17400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-6900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-11600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-14200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>3800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-26100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>32700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>64700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-80100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-32000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-23600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-18200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-11600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-18000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-26100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>32700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>64700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-80100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-32000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-23600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-18200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-11600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-18000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-47200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>30800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>64700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-80100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-127000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-87400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-18200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-11600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-18000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2273,135 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-34400</v>
+        <v>132900</v>
       </c>
       <c r="F32" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>127700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-66500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>78800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>30800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>20900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-47200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>30800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>64700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-80100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-127000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-87400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-18200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-11600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-18000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-47200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>30800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>64700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-80100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-127000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-87400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-18200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-11600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-18000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2529,28 +2703,34 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,43 +2791,49 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2655,11 +2841,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2671,10 +2857,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,14 +2942,14 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2774,31 +2972,37 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2806,14 +3010,14 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2827,57 +3031,63 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>2200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2886,19 +3096,19 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>200</v>
       </c>
       <c r="N47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P47" s="3">
         <v>400</v>
@@ -2910,19 +3120,25 @@
         <v>400</v>
       </c>
       <c r="S47" s="3">
+        <v>400</v>
+      </c>
+      <c r="T47" s="3">
+        <v>400</v>
+      </c>
+      <c r="U47" s="3">
         <v>100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2966,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2983,25 +3199,31 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -3010,43 +3232,49 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>800</v>
       </c>
       <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+      <c r="R49" s="3">
+        <v>800</v>
+      </c>
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,25 +3403,31 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3539,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,14 +3554,14 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3320,43 +3572,49 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,256 +3663,282 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F59" s="3">
         <v>54600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>29400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>67700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>134000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>55000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>24300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>19500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>11900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F60" s="3">
         <v>63300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>37700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>83800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>148500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>68500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>36900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>24900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>13900</v>
       </c>
       <c r="R60" s="3">
         <v>2700</v>
       </c>
       <c r="S60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="T60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3669,10 +3955,10 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3708,13 +3994,19 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F66" s="3">
         <v>63400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>37800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>83900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>148600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>68500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>36900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>24900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>13900</v>
       </c>
       <c r="R66" s="3">
         <v>2700</v>
       </c>
       <c r="S66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="T66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,23 +4501,29 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>-3200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>-21000</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-318700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-324600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-348400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-301200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-332000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-396600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-316500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-189600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-175200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-87900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-82300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-80800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-77700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-73200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-70200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-74300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-56000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-48900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-37300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-29900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-60100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-16800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-83900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-148600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-68500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-36900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-24900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-8000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-6800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-11400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-47200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>30800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>64700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-80100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-127000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-87400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-18200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-11600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-18000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,19 +5216,21 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4853,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4865,14 +5263,14 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,61 +5635,67 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-6200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5307,26 +5749,26 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5478,56 +5938,62 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,61 +6299,67 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>800</v>
       </c>
       <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
+        <v>800</v>
+      </c>
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>6300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5961,27 +6465,33 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>
